--- a/@input/i_step3/screen.xlsx
+++ b/@input/i_step3/screen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667014A3-93B2-4729-9190-C8A5CA24BF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5528118-2CA2-4821-A8F5-CF968F298967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="790" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="1130" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen" sheetId="1" r:id="rId1"/>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:EE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="EC2" sqref="EC2"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="DY25" sqref="DY25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="s">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="BD25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="BG25" t="s">
         <v>27</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="BW25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="BX25" t="s">
         <v>0</v>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="CI25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="CJ25" t="s">
         <v>0</v>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="DR25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="DS25" t="s">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="DY25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="DZ25" t="s">
         <v>0</v>
